--- a/onadata/apps/main/tests/fixtures/group_names_must_be_unique.xlsx
+++ b/onadata/apps/main/tests/fixtures/group_names_must_be_unique.xlsx
@@ -4,26 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="data" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miHUCfTElFS23Zo+0SDqeWM0aquFQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg1DjVrIBG+BRJlmCVxy0h7zwOdSQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>name</t>
@@ -35,10 +30,11 @@
     <t>begin repeat</t>
   </si>
   <si>
-    <t>group_names_must_be_unique</t>
+    <t>data</t>
   </si>
   <si>
-    <t>GPS</t>
+    <t xml:space="preserve">Geolocation data
+</t>
   </si>
   <si>
     <t>geopoint</t>
@@ -86,14 +82,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -106,10 +99,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -329,48 +318,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="3"/>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-    </row>
+    <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.75" customHeight="1"/>
     <row r="10" ht="12.75" customHeight="1"/>
@@ -1374,24 +1361,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>